--- a/data/MAGs_average_relativeabund_by_basin.xlsx
+++ b/data/MAGs_average_relativeabund_by_basin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkamundson/Library/Mobile Documents/com~apple~CloudDocs/Documents/csu/projects/shale_biogeo_project/geospatial_centroid/sentCaitlin_4.10.24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccmothes\Desktop\MAP-FRAC-Database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B16CE1C-0D43-BE43-968D-7A370889D9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A0992-E33C-4C44-88A4-0BFF0C53E3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25640" windowHeight="14440" xr2:uid="{0EB13703-80DF-7B4C-99CB-E2AC125A1EF2}"/>
+    <workbookView xWindow="-21630" yWindow="1185" windowWidth="18915" windowHeight="13890" xr2:uid="{0EB13703-80DF-7B4C-99CB-E2AC125A1EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="1526">
   <si>
     <t>MAGBasin</t>
   </si>
@@ -4611,6 +4611,12 @@
   </si>
   <si>
     <t>Denver</t>
+  </si>
+  <si>
+    <t>Basin</t>
+  </si>
+  <si>
+    <t>Play</t>
   </si>
 </sst>
 </file>
@@ -4668,1695 +4674,11 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="F1" t="str">
-            <v>shale basin</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>shale play</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="F2" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G13" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G14" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G15" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G16" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G17" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G18" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G19" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G20" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G21" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G22" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G23" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G24" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G25" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G26" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G27" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G28" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G29" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G30" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G31" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G32" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G33" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G34" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G35" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G36" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37" t="str">
-            <v>Anadarko</v>
-          </cell>
-          <cell r="G37" t="str">
-            <v>Woodford</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38" t="str">
-            <v>Bowland Shale</v>
-          </cell>
-          <cell r="G38" t="str">
-            <v>uk</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39" t="str">
-            <v>Bowland Shale</v>
-          </cell>
-          <cell r="G39" t="str">
-            <v>uk</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40" t="str">
-            <v>Bowland Shale</v>
-          </cell>
-          <cell r="G40" t="str">
-            <v>uk</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41" t="str">
-            <v>Bowland Shale</v>
-          </cell>
-          <cell r="G41" t="str">
-            <v>uk</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42" t="str">
-            <v>Bowland Shale</v>
-          </cell>
-          <cell r="G42" t="str">
-            <v>uk</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43" t="str">
-            <v>Bowland Shale</v>
-          </cell>
-          <cell r="G43" t="str">
-            <v>uk</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44" t="str">
-            <v>Bowland Shale</v>
-          </cell>
-          <cell r="G44" t="str">
-            <v>uk</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G45" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G46" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G47" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="F48" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G48" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="F49" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G49" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="F50" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G50" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G51" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="F52" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G52" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="F53" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G53" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="F54" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G54" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G55" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="F56" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G56" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="F57" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G57" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="F58" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G58" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G59" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="F60" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G60" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G61" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="F62" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G62" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G63" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="F64" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G64" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="F65" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G65" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="F66" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G66" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G67" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="F68" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G68" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="F69" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G69" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="F70" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G70" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="F71" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G71" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="F72" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G72" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="F73" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G73" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="F74" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G74" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="F75" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G75" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="F76" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G76" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="F77" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G77" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="F78" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G78" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="F79" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G79" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="F80" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G80" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="F81" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G81" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="F82" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G82" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="F83" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G83" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="F84" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G84" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="F85" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G85" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="F86" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G86" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="F87" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G87" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="F88" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G88" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="F89" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G89" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="F90" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G90" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="F91" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G91" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="F92" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G92" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="F93" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G93" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="F94" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G94" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="F95" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G95" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="F96" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G96" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="F97" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G97" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="F98" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G98" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="F99" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G99" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="F100" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G100" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="F101" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G101" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="F102" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G102" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="F103" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G103" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="F104" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G104" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="F105" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G105" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="F106" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G106" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="F107" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G107" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="F108" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G108" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="F109" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G109" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="F110" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G110" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="F111" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G111" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="F112" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G112" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="F113" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G113" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="F114" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G114" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="F115" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G115" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="F116" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G116" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="F117" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G117" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="F118" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G118" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="F119" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G119" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="F120" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G120" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="F121" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G121" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="F122" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G122" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="F123" t="str">
-            <v>Denver</v>
-          </cell>
-          <cell r="G123" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="F124" t="str">
-            <v>Illinois</v>
-          </cell>
-          <cell r="G124" t="str">
-            <v>New Albany</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="F125" t="str">
-            <v>Illinois</v>
-          </cell>
-          <cell r="G125" t="str">
-            <v>New Albany</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="F126" t="str">
-            <v>Illinois</v>
-          </cell>
-          <cell r="G126" t="str">
-            <v>New Albany</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="F127" t="str">
-            <v>Illinois</v>
-          </cell>
-          <cell r="G127" t="str">
-            <v>New Albany</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="F128" t="str">
-            <v>Illinois</v>
-          </cell>
-          <cell r="G128" t="str">
-            <v>New Albany</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="F129" t="str">
-            <v>Illinois</v>
-          </cell>
-          <cell r="G129" t="str">
-            <v>New Albany</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="F130" t="str">
-            <v>Illinois</v>
-          </cell>
-          <cell r="G130" t="str">
-            <v>New Albany</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="F131" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G131" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="F132" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G132" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="F133" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G133" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="F134" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G134" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="F135" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G135" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="F136" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G136" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="F137" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G137" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="F138" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G138" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="F139" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G139" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="F140" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G140" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="F141" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G141" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="F142" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G142" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="F143" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G143" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="F144" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G144" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="F145" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G145" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="F146" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G146" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="F147" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G147" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="F148" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G148" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="F149" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G149" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="F150" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G150" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="F151" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G151" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="F152" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G152" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="F153" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G153" t="str">
-            <v>Marcellus</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="F154" t="str">
-            <v>Michigan</v>
-          </cell>
-          <cell r="G154" t="str">
-            <v>Antrim</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="F155" t="str">
-            <v>Michigan</v>
-          </cell>
-          <cell r="G155" t="str">
-            <v>Antrim</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="F156" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G156" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="F157" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G157" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="F158" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G158" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="F159" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G159" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="F160" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G160" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="F161" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G161" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="F162" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G162" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="F163" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G163" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="F164" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G164" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="F165" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G165" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="F166" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G166" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="F167" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G167" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="F168" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G168" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="F169" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G169" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="F170" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G170" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="F171" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G171" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="F172" t="str">
-            <v>Permian</v>
-          </cell>
-          <cell r="G172" t="str">
-            <v>Wolfcamp-Midland</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="F173" t="str">
-            <v>Powder River</v>
-          </cell>
-          <cell r="G173" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="F174" t="str">
-            <v>Powder River</v>
-          </cell>
-          <cell r="G174" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="F175" t="str">
-            <v>Powder River</v>
-          </cell>
-          <cell r="G175" t="str">
-            <v>Niobrara</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="F176" t="str">
-            <v>Sichuan</v>
-          </cell>
-          <cell r="G176" t="str">
-            <v>Sichuan</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="F177" t="str">
-            <v>Sichuan</v>
-          </cell>
-          <cell r="G177" t="str">
-            <v>Sichuan</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="F178" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G178" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="F179" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G179" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="F180" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G180" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="F181" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G181" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="F182" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G182" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="F183" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G183" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="F184" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G184" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="F185" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G185" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="F186" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G186" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="F187" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G187" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="F188" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G188" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="F189" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G189" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="F190" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G190" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="F191" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G191" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="F192" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G192" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="F193" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G193" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="F194" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G194" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="F195" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G195" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="F196" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G196" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="F197" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G197" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="F198" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G198" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="F199" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G199" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="F200" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G200" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="F201" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G201" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="F202" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G202" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="F203" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G203" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="F204" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G204" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="F205" t="str">
-            <v>Appalachian</v>
-          </cell>
-          <cell r="G205" t="str">
-            <v>Utica</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="F206" t="str">
-            <v>Western Canadian</v>
-          </cell>
-          <cell r="G206" t="str">
-            <v>Montney</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="F207" t="str">
-            <v>Western Canadian</v>
-          </cell>
-          <cell r="G207" t="str">
-            <v>Montney</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="F208" t="str">
-            <v>Western Gulf</v>
-          </cell>
-          <cell r="G208" t="str">
-            <v>Eagle Ford</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="F209" t="str">
-            <v>Western Gulf</v>
-          </cell>
-          <cell r="G209" t="str">
-            <v>Eagle Ford</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="F210" t="str">
-            <v>Western Gulf</v>
-          </cell>
-          <cell r="G210" t="str">
-            <v>Eagle Ford</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6681,19 +5003,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F3B973-DD8B-F845-ADD1-667807A437F9}">
   <dimension ref="A1:E865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D504" sqref="D504:D638"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6703,8 +5025,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6722,7 +5050,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6740,7 +5068,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6758,7 +5086,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6776,7 +5104,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6794,7 +5122,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -6812,7 +5140,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -6830,7 +5158,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6848,7 +5176,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6866,7 +5194,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -6884,7 +5212,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6902,7 +5230,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -6920,7 +5248,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -6938,7 +5266,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -6956,7 +5284,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -6974,7 +5302,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6992,7 +5320,7 @@
         <v>Eagle Ford</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -7010,7 +5338,7 @@
         <v>Montney</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -7028,7 +5356,7 @@
         <v>Montney</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -7046,7 +5374,7 @@
         <v>Montney</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -7064,7 +5392,7 @@
         <v>Montney</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -7082,7 +5410,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -7100,7 +5428,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -7118,7 +5446,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -7136,7 +5464,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -7154,7 +5482,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -7172,7 +5500,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -7190,7 +5518,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -7208,7 +5536,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -7226,7 +5554,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -7244,7 +5572,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -7262,7 +5590,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -7280,7 +5608,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -7298,7 +5626,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -7316,7 +5644,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -7334,7 +5662,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -7352,7 +5680,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -7370,7 +5698,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -7388,7 +5716,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7406,7 +5734,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -7424,7 +5752,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -7442,7 +5770,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -7460,7 +5788,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -7478,7 +5806,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -7496,7 +5824,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -7514,7 +5842,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -7532,7 +5860,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -7550,7 +5878,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -7568,7 +5896,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -7586,7 +5914,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -7604,7 +5932,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -7622,7 +5950,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -7640,7 +5968,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -7658,7 +5986,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -7676,7 +6004,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -7694,7 +6022,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -7712,7 +6040,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -7730,7 +6058,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -7748,7 +6076,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -7766,7 +6094,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -7784,7 +6112,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -7802,7 +6130,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -7820,7 +6148,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -7838,7 +6166,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -7856,7 +6184,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -7874,7 +6202,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -7892,7 +6220,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -7910,7 +6238,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -7928,7 +6256,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>137</v>
       </c>
@@ -7946,7 +6274,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>139</v>
       </c>
@@ -7964,7 +6292,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>141</v>
       </c>
@@ -7982,7 +6310,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>143</v>
       </c>
@@ -8000,7 +6328,7 @@
         <v>Sichuan</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -8018,7 +6346,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -8036,7 +6364,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -8054,7 +6382,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -8072,7 +6400,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -8090,7 +6418,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -8108,7 +6436,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -8126,7 +6454,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -8144,7 +6472,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -8162,7 +6490,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>162</v>
       </c>
@@ -8180,7 +6508,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -8198,7 +6526,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -8216,7 +6544,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -8234,7 +6562,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -8252,7 +6580,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>171</v>
       </c>
@@ -8270,7 +6598,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -8288,7 +6616,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>175</v>
       </c>
@@ -8306,7 +6634,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>177</v>
       </c>
@@ -8324,7 +6652,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -8342,7 +6670,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -8360,7 +6688,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -8378,7 +6706,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>185</v>
       </c>
@@ -8396,7 +6724,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>187</v>
       </c>
@@ -8414,7 +6742,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>188</v>
       </c>
@@ -8432,7 +6760,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -8450,7 +6778,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>192</v>
       </c>
@@ -8468,7 +6796,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>194</v>
       </c>
@@ -8486,7 +6814,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>196</v>
       </c>
@@ -8504,7 +6832,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>198</v>
       </c>
@@ -8522,7 +6850,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>200</v>
       </c>
@@ -8540,7 +6868,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -8558,7 +6886,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -8576,7 +6904,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>206</v>
       </c>
@@ -8594,7 +6922,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>208</v>
       </c>
@@ -8612,7 +6940,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>209</v>
       </c>
@@ -8630,7 +6958,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>211</v>
       </c>
@@ -8648,7 +6976,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>213</v>
       </c>
@@ -8666,7 +6994,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>215</v>
       </c>
@@ -8684,7 +7012,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>217</v>
       </c>
@@ -8702,7 +7030,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>219</v>
       </c>
@@ -8720,7 +7048,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>220</v>
       </c>
@@ -8738,7 +7066,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>222</v>
       </c>
@@ -8756,7 +7084,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>223</v>
       </c>
@@ -8774,7 +7102,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>225</v>
       </c>
@@ -8792,7 +7120,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>227</v>
       </c>
@@ -8810,7 +7138,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>229</v>
       </c>
@@ -8828,7 +7156,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>231</v>
       </c>
@@ -8846,7 +7174,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>232</v>
       </c>
@@ -8864,7 +7192,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>234</v>
       </c>
@@ -8882,7 +7210,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>236</v>
       </c>
@@ -8900,7 +7228,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>238</v>
       </c>
@@ -8918,7 +7246,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>240</v>
       </c>
@@ -8936,7 +7264,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>242</v>
       </c>
@@ -8954,7 +7282,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>244</v>
       </c>
@@ -8972,7 +7300,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>246</v>
       </c>
@@ -8990,7 +7318,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>248</v>
       </c>
@@ -9008,7 +7336,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>250</v>
       </c>
@@ -9026,7 +7354,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>252</v>
       </c>
@@ -9044,7 +7372,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>253</v>
       </c>
@@ -9062,7 +7390,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>255</v>
       </c>
@@ -9080,7 +7408,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>257</v>
       </c>
@@ -9098,7 +7426,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>258</v>
       </c>
@@ -9116,7 +7444,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>260</v>
       </c>
@@ -9134,7 +7462,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>262</v>
       </c>
@@ -9152,7 +7480,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>264</v>
       </c>
@@ -9170,7 +7498,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>265</v>
       </c>
@@ -9188,7 +7516,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>267</v>
       </c>
@@ -9206,7 +7534,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>269</v>
       </c>
@@ -9224,7 +7552,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>270</v>
       </c>
@@ -9242,7 +7570,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>272</v>
       </c>
@@ -9260,7 +7588,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>274</v>
       </c>
@@ -9278,7 +7606,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>276</v>
       </c>
@@ -9296,7 +7624,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>278</v>
       </c>
@@ -9314,7 +7642,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>280</v>
       </c>
@@ -9332,7 +7660,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>282</v>
       </c>
@@ -9350,7 +7678,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>283</v>
       </c>
@@ -9368,7 +7696,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>284</v>
       </c>
@@ -9386,7 +7714,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>286</v>
       </c>
@@ -9404,7 +7732,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>288</v>
       </c>
@@ -9422,7 +7750,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>289</v>
       </c>
@@ -9440,7 +7768,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>291</v>
       </c>
@@ -9458,7 +7786,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>293</v>
       </c>
@@ -9476,7 +7804,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>295</v>
       </c>
@@ -9494,7 +7822,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>297</v>
       </c>
@@ -9512,7 +7840,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>299</v>
       </c>
@@ -9530,7 +7858,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>301</v>
       </c>
@@ -9548,7 +7876,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>303</v>
       </c>
@@ -9566,7 +7894,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>305</v>
       </c>
@@ -9584,7 +7912,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>307</v>
       </c>
@@ -9602,7 +7930,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>309</v>
       </c>
@@ -9620,7 +7948,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>311</v>
       </c>
@@ -9638,7 +7966,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>313</v>
       </c>
@@ -9656,7 +7984,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>315</v>
       </c>
@@ -9674,7 +8002,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>317</v>
       </c>
@@ -9692,7 +8020,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>318</v>
       </c>
@@ -9710,7 +8038,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>320</v>
       </c>
@@ -9728,7 +8056,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>322</v>
       </c>
@@ -9746,7 +8074,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>324</v>
       </c>
@@ -9764,7 +8092,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>326</v>
       </c>
@@ -9782,7 +8110,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>328</v>
       </c>
@@ -9800,7 +8128,7 @@
         <v>Wolfcamp-Midland</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>329</v>
       </c>
@@ -9818,7 +8146,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>331</v>
       </c>
@@ -9836,7 +8164,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>333</v>
       </c>
@@ -9854,7 +8182,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>335</v>
       </c>
@@ -9872,7 +8200,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>337</v>
       </c>
@@ -9890,7 +8218,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>339</v>
       </c>
@@ -9908,7 +8236,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>341</v>
       </c>
@@ -9926,7 +8254,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>343</v>
       </c>
@@ -9944,7 +8272,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>345</v>
       </c>
@@ -9962,7 +8290,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>347</v>
       </c>
@@ -9980,7 +8308,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>349</v>
       </c>
@@ -9998,7 +8326,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>351</v>
       </c>
@@ -10016,7 +8344,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>353</v>
       </c>
@@ -10034,7 +8362,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>355</v>
       </c>
@@ -10052,7 +8380,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>357</v>
       </c>
@@ -10070,7 +8398,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>359</v>
       </c>
@@ -10088,7 +8416,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>361</v>
       </c>
@@ -10106,7 +8434,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>363</v>
       </c>
@@ -10124,7 +8452,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>365</v>
       </c>
@@ -10142,7 +8470,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>367</v>
       </c>
@@ -10160,7 +8488,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>369</v>
       </c>
@@ -10178,7 +8506,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>371</v>
       </c>
@@ -10196,7 +8524,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>373</v>
       </c>
@@ -10214,7 +8542,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>375</v>
       </c>
@@ -10232,7 +8560,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>377</v>
       </c>
@@ -10250,7 +8578,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>379</v>
       </c>
@@ -10268,7 +8596,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>381</v>
       </c>
@@ -10286,7 +8614,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>383</v>
       </c>
@@ -10304,7 +8632,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>385</v>
       </c>
@@ -10322,7 +8650,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>387</v>
       </c>
@@ -10340,7 +8668,7 @@
         <v>Antrim</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>389</v>
       </c>
@@ -10358,7 +8686,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>391</v>
       </c>
@@ -10376,7 +8704,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>393</v>
       </c>
@@ -10394,7 +8722,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>395</v>
       </c>
@@ -10412,7 +8740,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>397</v>
       </c>
@@ -10430,7 +8758,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>399</v>
       </c>
@@ -10448,7 +8776,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>401</v>
       </c>
@@ -10466,7 +8794,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>403</v>
       </c>
@@ -10484,7 +8812,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>405</v>
       </c>
@@ -10502,7 +8830,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>407</v>
       </c>
@@ -10520,7 +8848,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>409</v>
       </c>
@@ -10538,7 +8866,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>411</v>
       </c>
@@ -10556,7 +8884,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>413</v>
       </c>
@@ -10574,7 +8902,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>415</v>
       </c>
@@ -10592,7 +8920,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>417</v>
       </c>
@@ -10610,7 +8938,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>419</v>
       </c>
@@ -10628,7 +8956,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>421</v>
       </c>
@@ -10646,7 +8974,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>423</v>
       </c>
@@ -10664,7 +8992,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>424</v>
       </c>
@@ -10682,7 +9010,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>426</v>
       </c>
@@ -10700,7 +9028,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>428</v>
       </c>
@@ -10718,7 +9046,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>430</v>
       </c>
@@ -10736,7 +9064,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>432</v>
       </c>
@@ -10754,7 +9082,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>434</v>
       </c>
@@ -10772,7 +9100,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>435</v>
       </c>
@@ -10790,7 +9118,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>437</v>
       </c>
@@ -10808,7 +9136,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>439</v>
       </c>
@@ -10826,7 +9154,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>441</v>
       </c>
@@ -10844,7 +9172,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>443</v>
       </c>
@@ -10862,7 +9190,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>445</v>
       </c>
@@ -10880,7 +9208,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>447</v>
       </c>
@@ -10898,7 +9226,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>449</v>
       </c>
@@ -10916,7 +9244,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>451</v>
       </c>
@@ -10934,7 +9262,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>453</v>
       </c>
@@ -10952,7 +9280,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>455</v>
       </c>
@@ -10970,7 +9298,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>457</v>
       </c>
@@ -10988,7 +9316,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>458</v>
       </c>
@@ -11006,7 +9334,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>460</v>
       </c>
@@ -11024,7 +9352,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>462</v>
       </c>
@@ -11042,7 +9370,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>464</v>
       </c>
@@ -11060,7 +9388,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>466</v>
       </c>
@@ -11078,7 +9406,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>468</v>
       </c>
@@ -11096,7 +9424,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>470</v>
       </c>
@@ -11114,7 +9442,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>472</v>
       </c>
@@ -11132,7 +9460,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>474</v>
       </c>
@@ -11150,7 +9478,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>476</v>
       </c>
@@ -11168,7 +9496,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>477</v>
       </c>
@@ -11186,7 +9514,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>479</v>
       </c>
@@ -11204,7 +9532,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>481</v>
       </c>
@@ -11222,7 +9550,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>483</v>
       </c>
@@ -11240,7 +9568,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>485</v>
       </c>
@@ -11258,7 +9586,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>487</v>
       </c>
@@ -11276,7 +9604,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>489</v>
       </c>
@@ -11294,7 +9622,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>490</v>
       </c>
@@ -11312,7 +9640,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>492</v>
       </c>
@@ -11330,7 +9658,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>494</v>
       </c>
@@ -11348,7 +9676,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>496</v>
       </c>
@@ -11366,7 +9694,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>498</v>
       </c>
@@ -11384,7 +9712,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>500</v>
       </c>
@@ -11402,7 +9730,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>502</v>
       </c>
@@ -11420,7 +9748,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>503</v>
       </c>
@@ -11438,7 +9766,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>505</v>
       </c>
@@ -11456,7 +9784,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>507</v>
       </c>
@@ -11474,7 +9802,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>509</v>
       </c>
@@ -11492,7 +9820,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>511</v>
       </c>
@@ -11510,7 +9838,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>513</v>
       </c>
@@ -11528,7 +9856,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>515</v>
       </c>
@@ -11546,7 +9874,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>516</v>
       </c>
@@ -11564,7 +9892,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>518</v>
       </c>
@@ -11582,7 +9910,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>520</v>
       </c>
@@ -11600,7 +9928,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>522</v>
       </c>
@@ -11618,7 +9946,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>524</v>
       </c>
@@ -11636,7 +9964,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>526</v>
       </c>
@@ -11654,7 +9982,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>528</v>
       </c>
@@ -11672,7 +10000,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>529</v>
       </c>
@@ -11690,7 +10018,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>530</v>
       </c>
@@ -11708,7 +10036,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>532</v>
       </c>
@@ -11726,7 +10054,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>534</v>
       </c>
@@ -11744,7 +10072,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>536</v>
       </c>
@@ -11762,7 +10090,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>538</v>
       </c>
@@ -11780,7 +10108,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>540</v>
       </c>
@@ -11798,7 +10126,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>542</v>
       </c>
@@ -11816,7 +10144,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>544</v>
       </c>
@@ -11834,7 +10162,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>546</v>
       </c>
@@ -11852,7 +10180,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>548</v>
       </c>
@@ -11870,7 +10198,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>550</v>
       </c>
@@ -11888,7 +10216,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>552</v>
       </c>
@@ -11906,7 +10234,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>554</v>
       </c>
@@ -11924,7 +10252,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>556</v>
       </c>
@@ -11942,7 +10270,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>558</v>
       </c>
@@ -11960,7 +10288,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>560</v>
       </c>
@@ -11978,7 +10306,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>562</v>
       </c>
@@ -11996,7 +10324,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>564</v>
       </c>
@@ -12014,7 +10342,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>566</v>
       </c>
@@ -12032,7 +10360,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>567</v>
       </c>
@@ -12050,7 +10378,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>569</v>
       </c>
@@ -12068,7 +10396,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>571</v>
       </c>
@@ -12086,7 +10414,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>573</v>
       </c>
@@ -12104,7 +10432,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>575</v>
       </c>
@@ -12122,7 +10450,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>577</v>
       </c>
@@ -12140,7 +10468,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>579</v>
       </c>
@@ -12158,7 +10486,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>581</v>
       </c>
@@ -12176,7 +10504,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>583</v>
       </c>
@@ -12194,7 +10522,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>585</v>
       </c>
@@ -12212,7 +10540,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>587</v>
       </c>
@@ -12230,7 +10558,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>589</v>
       </c>
@@ -12248,7 +10576,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>591</v>
       </c>
@@ -12266,7 +10594,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>592</v>
       </c>
@@ -12284,7 +10612,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>594</v>
       </c>
@@ -12302,7 +10630,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>596</v>
       </c>
@@ -12320,7 +10648,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>598</v>
       </c>
@@ -12338,7 +10666,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>600</v>
       </c>
@@ -12356,7 +10684,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>602</v>
       </c>
@@ -12374,7 +10702,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>604</v>
       </c>
@@ -12392,7 +10720,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>606</v>
       </c>
@@ -12410,7 +10738,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>608</v>
       </c>
@@ -12428,7 +10756,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>610</v>
       </c>
@@ -12446,7 +10774,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>612</v>
       </c>
@@ -12464,7 +10792,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>614</v>
       </c>
@@ -12482,7 +10810,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>616</v>
       </c>
@@ -12500,7 +10828,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>618</v>
       </c>
@@ -12518,7 +10846,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>620</v>
       </c>
@@ -12536,7 +10864,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>621</v>
       </c>
@@ -12554,7 +10882,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>623</v>
       </c>
@@ -12572,7 +10900,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>624</v>
       </c>
@@ -12590,7 +10918,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>626</v>
       </c>
@@ -12608,7 +10936,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>628</v>
       </c>
@@ -12626,7 +10954,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>630</v>
       </c>
@@ -12644,7 +10972,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>632</v>
       </c>
@@ -12662,7 +10990,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>634</v>
       </c>
@@ -12680,7 +11008,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>635</v>
       </c>
@@ -12698,7 +11026,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>637</v>
       </c>
@@ -12716,7 +11044,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>639</v>
       </c>
@@ -12734,7 +11062,7 @@
         <v>New Albany</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>640</v>
       </c>
@@ -12752,7 +11080,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>641</v>
       </c>
@@ -12770,7 +11098,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>642</v>
       </c>
@@ -12788,7 +11116,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>644</v>
       </c>
@@ -12806,7 +11134,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>645</v>
       </c>
@@ -12824,7 +11152,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>646</v>
       </c>
@@ -12842,7 +11170,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>647</v>
       </c>
@@ -12860,7 +11188,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>648</v>
       </c>
@@ -12878,7 +11206,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>650</v>
       </c>
@@ -12896,7 +11224,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>652</v>
       </c>
@@ -12914,7 +11242,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>654</v>
       </c>
@@ -12932,7 +11260,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>656</v>
       </c>
@@ -12950,7 +11278,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>657</v>
       </c>
@@ -12968,7 +11296,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>659</v>
       </c>
@@ -12986,7 +11314,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>660</v>
       </c>
@@ -13004,7 +11332,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>662</v>
       </c>
@@ -13022,7 +11350,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>663</v>
       </c>
@@ -13040,7 +11368,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>665</v>
       </c>
@@ -13058,7 +11386,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>667</v>
       </c>
@@ -13076,7 +11404,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>669</v>
       </c>
@@ -13094,7 +11422,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>671</v>
       </c>
@@ -13112,7 +11440,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>672</v>
       </c>
@@ -13130,7 +11458,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>673</v>
       </c>
@@ -13148,7 +11476,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>674</v>
       </c>
@@ -13166,7 +11494,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>675</v>
       </c>
@@ -13184,7 +11512,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>676</v>
       </c>
@@ -13202,7 +11530,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>678</v>
       </c>
@@ -13220,7 +11548,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>679</v>
       </c>
@@ -13238,7 +11566,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>681</v>
       </c>
@@ -13256,7 +11584,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>682</v>
       </c>
@@ -13274,7 +11602,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>683</v>
       </c>
@@ -13292,7 +11620,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>685</v>
       </c>
@@ -13310,7 +11638,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>687</v>
       </c>
@@ -13328,7 +11656,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>688</v>
       </c>
@@ -13346,7 +11674,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>690</v>
       </c>
@@ -13364,7 +11692,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>692</v>
       </c>
@@ -13382,7 +11710,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>694</v>
       </c>
@@ -13400,7 +11728,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>695</v>
       </c>
@@ -13418,7 +11746,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>697</v>
       </c>
@@ -13436,7 +11764,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>699</v>
       </c>
@@ -13454,7 +11782,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>700</v>
       </c>
@@ -13472,7 +11800,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>701</v>
       </c>
@@ -13490,7 +11818,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>702</v>
       </c>
@@ -13508,7 +11836,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>704</v>
       </c>
@@ -13526,7 +11854,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>705</v>
       </c>
@@ -13544,7 +11872,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>706</v>
       </c>
@@ -13562,7 +11890,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>708</v>
       </c>
@@ -13580,7 +11908,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>710</v>
       </c>
@@ -13598,7 +11926,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>712</v>
       </c>
@@ -13616,7 +11944,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>714</v>
       </c>
@@ -13634,7 +11962,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>716</v>
       </c>
@@ -13652,7 +11980,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>718</v>
       </c>
@@ -13670,7 +11998,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>720</v>
       </c>
@@ -13688,7 +12016,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>722</v>
       </c>
@@ -13706,7 +12034,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>724</v>
       </c>
@@ -13724,7 +12052,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>726</v>
       </c>
@@ -13742,7 +12070,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>727</v>
       </c>
@@ -13760,7 +12088,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>728</v>
       </c>
@@ -13778,7 +12106,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>730</v>
       </c>
@@ -13796,7 +12124,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>731</v>
       </c>
@@ -13814,7 +12142,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>732</v>
       </c>
@@ -13832,7 +12160,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>734</v>
       </c>
@@ -13850,7 +12178,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>736</v>
       </c>
@@ -13868,7 +12196,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>738</v>
       </c>
@@ -13886,7 +12214,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>740</v>
       </c>
@@ -13904,7 +12232,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>741</v>
       </c>
@@ -13922,7 +12250,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>743</v>
       </c>
@@ -13940,7 +12268,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>745</v>
       </c>
@@ -13958,7 +12286,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>746</v>
       </c>
@@ -13976,7 +12304,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>747</v>
       </c>
@@ -13994,7 +12322,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>749</v>
       </c>
@@ -14012,7 +12340,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>750</v>
       </c>
@@ -14030,7 +12358,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>751</v>
       </c>
@@ -14048,7 +12376,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>752</v>
       </c>
@@ -14066,7 +12394,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>753</v>
       </c>
@@ -14084,7 +12412,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>755</v>
       </c>
@@ -14102,7 +12430,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>757</v>
       </c>
@@ -14120,7 +12448,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>758</v>
       </c>
@@ -14138,7 +12466,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>759</v>
       </c>
@@ -14156,7 +12484,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>761</v>
       </c>
@@ -14174,7 +12502,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>763</v>
       </c>
@@ -14192,7 +12520,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>764</v>
       </c>
@@ -14210,7 +12538,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>766</v>
       </c>
@@ -14228,7 +12556,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>768</v>
       </c>
@@ -14246,7 +12574,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>770</v>
       </c>
@@ -14264,7 +12592,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>772</v>
       </c>
@@ -14282,7 +12610,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>773</v>
       </c>
@@ -14300,7 +12628,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>775</v>
       </c>
@@ -14318,7 +12646,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>776</v>
       </c>
@@ -14336,7 +12664,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>778</v>
       </c>
@@ -14354,7 +12682,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>780</v>
       </c>
@@ -14372,7 +12700,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>782</v>
       </c>
@@ -14390,7 +12718,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>784</v>
       </c>
@@ -14408,7 +12736,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>785</v>
       </c>
@@ -14426,7 +12754,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>787</v>
       </c>
@@ -14444,7 +12772,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>789</v>
       </c>
@@ -14462,7 +12790,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>791</v>
       </c>
@@ -14480,7 +12808,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>793</v>
       </c>
@@ -14498,7 +12826,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>794</v>
       </c>
@@ -14516,7 +12844,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>796</v>
       </c>
@@ -14534,7 +12862,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>798</v>
       </c>
@@ -14552,7 +12880,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>799</v>
       </c>
@@ -14570,7 +12898,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>800</v>
       </c>
@@ -14588,7 +12916,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>802</v>
       </c>
@@ -14606,7 +12934,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>804</v>
       </c>
@@ -14624,7 +12952,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>806</v>
       </c>
@@ -14642,7 +12970,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>808</v>
       </c>
@@ -14660,7 +12988,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>810</v>
       </c>
@@ -14678,7 +13006,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>812</v>
       </c>
@@ -14696,7 +13024,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>814</v>
       </c>
@@ -14714,7 +13042,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>816</v>
       </c>
@@ -14732,7 +13060,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>818</v>
       </c>
@@ -14750,7 +13078,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>820</v>
       </c>
@@ -14768,7 +13096,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>822</v>
       </c>
@@ -14786,7 +13114,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>824</v>
       </c>
@@ -14804,7 +13132,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>825</v>
       </c>
@@ -14822,7 +13150,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>827</v>
       </c>
@@ -14840,7 +13168,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>828</v>
       </c>
@@ -14858,7 +13186,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>830</v>
       </c>
@@ -14876,7 +13204,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>832</v>
       </c>
@@ -14894,7 +13222,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>834</v>
       </c>
@@ -14912,7 +13240,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>836</v>
       </c>
@@ -14930,7 +13258,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>838</v>
       </c>
@@ -14948,7 +13276,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>840</v>
       </c>
@@ -14966,7 +13294,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>842</v>
       </c>
@@ -14984,7 +13312,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>844</v>
       </c>
@@ -15002,7 +13330,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>846</v>
       </c>
@@ -15020,7 +13348,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>848</v>
       </c>
@@ -15038,7 +13366,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>850</v>
       </c>
@@ -15056,7 +13384,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>852</v>
       </c>
@@ -15074,7 +13402,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>854</v>
       </c>
@@ -15092,7 +13420,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>855</v>
       </c>
@@ -15110,7 +13438,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>856</v>
       </c>
@@ -15128,7 +13456,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>858</v>
       </c>
@@ -15146,7 +13474,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>859</v>
       </c>
@@ -15164,7 +13492,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>860</v>
       </c>
@@ -15182,7 +13510,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>861</v>
       </c>
@@ -15200,7 +13528,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>863</v>
       </c>
@@ -15218,7 +13546,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>865</v>
       </c>
@@ -15236,7 +13564,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>867</v>
       </c>
@@ -15254,7 +13582,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>868</v>
       </c>
@@ -15272,7 +13600,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>870</v>
       </c>
@@ -15290,7 +13618,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>872</v>
       </c>
@@ -15308,7 +13636,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>873</v>
       </c>
@@ -15326,7 +13654,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>875</v>
       </c>
@@ -15344,7 +13672,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>877</v>
       </c>
@@ -15362,7 +13690,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>879</v>
       </c>
@@ -15380,7 +13708,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>881</v>
       </c>
@@ -15398,7 +13726,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>883</v>
       </c>
@@ -15416,7 +13744,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>885</v>
       </c>
@@ -15434,7 +13762,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>886</v>
       </c>
@@ -15452,7 +13780,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>888</v>
       </c>
@@ -15470,7 +13798,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>890</v>
       </c>
@@ -15488,7 +13816,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>892</v>
       </c>
@@ -15506,7 +13834,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>894</v>
       </c>
@@ -15524,7 +13852,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>896</v>
       </c>
@@ -15542,7 +13870,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>898</v>
       </c>
@@ -15560,7 +13888,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>900</v>
       </c>
@@ -15578,7 +13906,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>902</v>
       </c>
@@ -15596,7 +13924,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>903</v>
       </c>
@@ -15614,7 +13942,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>904</v>
       </c>
@@ -15632,7 +13960,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>906</v>
       </c>
@@ -15650,7 +13978,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>908</v>
       </c>
@@ -15668,7 +13996,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>910</v>
       </c>
@@ -15686,7 +14014,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>912</v>
       </c>
@@ -15704,7 +14032,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>914</v>
       </c>
@@ -15722,7 +14050,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>916</v>
       </c>
@@ -15740,7 +14068,7 @@
         <v>Niobrara</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>918</v>
       </c>
@@ -15758,7 +14086,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>921</v>
       </c>
@@ -15776,7 +14104,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>923</v>
       </c>
@@ -15794,7 +14122,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>925</v>
       </c>
@@ -15812,7 +14140,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>927</v>
       </c>
@@ -15830,7 +14158,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>929</v>
       </c>
@@ -15848,7 +14176,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>931</v>
       </c>
@@ -15866,7 +14194,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>933</v>
       </c>
@@ -15884,7 +14212,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>935</v>
       </c>
@@ -15902,7 +14230,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>937</v>
       </c>
@@ -15920,7 +14248,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>939</v>
       </c>
@@ -15938,7 +14266,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>941</v>
       </c>
@@ -15956,7 +14284,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>943</v>
       </c>
@@ -15974,7 +14302,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>945</v>
       </c>
@@ -15992,7 +14320,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>947</v>
       </c>
@@ -16010,7 +14338,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>949</v>
       </c>
@@ -16028,7 +14356,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>951</v>
       </c>
@@ -16046,7 +14374,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>953</v>
       </c>
@@ -16064,7 +14392,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>955</v>
       </c>
@@ -16082,7 +14410,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>957</v>
       </c>
@@ -16100,7 +14428,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>959</v>
       </c>
@@ -16118,7 +14446,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>961</v>
       </c>
@@ -16136,7 +14464,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>963</v>
       </c>
@@ -16154,7 +14482,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>965</v>
       </c>
@@ -16172,7 +14500,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>967</v>
       </c>
@@ -16190,7 +14518,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>969</v>
       </c>
@@ -16208,7 +14536,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>971</v>
       </c>
@@ -16226,7 +14554,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>973</v>
       </c>
@@ -16244,7 +14572,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>975</v>
       </c>
@@ -16262,7 +14590,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>977</v>
       </c>
@@ -16280,7 +14608,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>979</v>
       </c>
@@ -16298,7 +14626,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>981</v>
       </c>
@@ -16316,7 +14644,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>983</v>
       </c>
@@ -16334,7 +14662,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>985</v>
       </c>
@@ -16352,7 +14680,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>987</v>
       </c>
@@ -16370,7 +14698,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>989</v>
       </c>
@@ -16388,7 +14716,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>991</v>
       </c>
@@ -16406,7 +14734,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>993</v>
       </c>
@@ -16424,7 +14752,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>995</v>
       </c>
@@ -16442,7 +14770,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>997</v>
       </c>
@@ -16460,7 +14788,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>999</v>
       </c>
@@ -16478,7 +14806,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1001</v>
       </c>
@@ -16496,7 +14824,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1003</v>
       </c>
@@ -16514,7 +14842,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1005</v>
       </c>
@@ -16532,7 +14860,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1007</v>
       </c>
@@ -16550,7 +14878,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1009</v>
       </c>
@@ -16568,7 +14896,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1011</v>
       </c>
@@ -16586,7 +14914,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1013</v>
       </c>
@@ -16604,7 +14932,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1015</v>
       </c>
@@ -16622,7 +14950,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1017</v>
       </c>
@@ -16640,7 +14968,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1019</v>
       </c>
@@ -16658,7 +14986,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1021</v>
       </c>
@@ -16676,7 +15004,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1023</v>
       </c>
@@ -16694,7 +15022,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1025</v>
       </c>
@@ -16712,7 +15040,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1027</v>
       </c>
@@ -16730,7 +15058,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1029</v>
       </c>
@@ -16748,7 +15076,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1031</v>
       </c>
@@ -16766,7 +15094,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1033</v>
       </c>
@@ -16784,7 +15112,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1035</v>
       </c>
@@ -16802,7 +15130,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1037</v>
       </c>
@@ -16820,7 +15148,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1039</v>
       </c>
@@ -16838,7 +15166,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1041</v>
       </c>
@@ -16856,7 +15184,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1043</v>
       </c>
@@ -16874,7 +15202,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1045</v>
       </c>
@@ -16892,7 +15220,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1047</v>
       </c>
@@ -16910,7 +15238,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1049</v>
       </c>
@@ -16928,7 +15256,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1051</v>
       </c>
@@ -16946,7 +15274,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1053</v>
       </c>
@@ -16964,7 +15292,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1055</v>
       </c>
@@ -16982,7 +15310,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1057</v>
       </c>
@@ -17000,7 +15328,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1059</v>
       </c>
@@ -17018,7 +15346,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1061</v>
       </c>
@@ -17036,7 +15364,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1063</v>
       </c>
@@ -17054,7 +15382,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1065</v>
       </c>
@@ -17072,7 +15400,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1067</v>
       </c>
@@ -17090,7 +15418,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1069</v>
       </c>
@@ -17108,7 +15436,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1071</v>
       </c>
@@ -17126,7 +15454,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1073</v>
       </c>
@@ -17144,7 +15472,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1075</v>
       </c>
@@ -17162,7 +15490,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1077</v>
       </c>
@@ -17180,7 +15508,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1079</v>
       </c>
@@ -17198,7 +15526,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1081</v>
       </c>
@@ -17216,7 +15544,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1083</v>
       </c>
@@ -17234,7 +15562,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1085</v>
       </c>
@@ -17252,7 +15580,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1087</v>
       </c>
@@ -17270,7 +15598,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1089</v>
       </c>
@@ -17288,7 +15616,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1091</v>
       </c>
@@ -17306,7 +15634,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1093</v>
       </c>
@@ -17324,7 +15652,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1095</v>
       </c>
@@ -17342,7 +15670,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1097</v>
       </c>
@@ -17360,7 +15688,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1099</v>
       </c>
@@ -17378,7 +15706,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1101</v>
       </c>
@@ -17396,7 +15724,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1103</v>
       </c>
@@ -17414,7 +15742,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1105</v>
       </c>
@@ -17432,7 +15760,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1107</v>
       </c>
@@ -17450,7 +15778,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1109</v>
       </c>
@@ -17468,7 +15796,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1111</v>
       </c>
@@ -17486,7 +15814,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1113</v>
       </c>
@@ -17504,7 +15832,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1115</v>
       </c>
@@ -17522,7 +15850,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1117</v>
       </c>
@@ -17540,7 +15868,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1119</v>
       </c>
@@ -17558,7 +15886,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1121</v>
       </c>
@@ -17576,7 +15904,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1123</v>
       </c>
@@ -17594,7 +15922,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1125</v>
       </c>
@@ -17612,7 +15940,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1127</v>
       </c>
@@ -17630,7 +15958,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1129</v>
       </c>
@@ -17648,7 +15976,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1131</v>
       </c>
@@ -17666,7 +15994,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1133</v>
       </c>
@@ -17684,7 +16012,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1135</v>
       </c>
@@ -17702,7 +16030,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1137</v>
       </c>
@@ -17720,7 +16048,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1139</v>
       </c>
@@ -17738,7 +16066,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1141</v>
       </c>
@@ -17756,7 +16084,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1143</v>
       </c>
@@ -17774,7 +16102,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1145</v>
       </c>
@@ -17792,7 +16120,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1147</v>
       </c>
@@ -17810,7 +16138,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1149</v>
       </c>
@@ -17828,7 +16156,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1151</v>
       </c>
@@ -17846,7 +16174,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1153</v>
       </c>
@@ -17864,7 +16192,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1155</v>
       </c>
@@ -17882,7 +16210,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1157</v>
       </c>
@@ -17900,7 +16228,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1159</v>
       </c>
@@ -17918,7 +16246,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1161</v>
       </c>
@@ -17936,7 +16264,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1163</v>
       </c>
@@ -17954,7 +16282,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1165</v>
       </c>
@@ -17972,7 +16300,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1167</v>
       </c>
@@ -17990,7 +16318,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1169</v>
       </c>
@@ -18008,7 +16336,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1171</v>
       </c>
@@ -18026,7 +16354,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1173</v>
       </c>
@@ -18044,7 +16372,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1175</v>
       </c>
@@ -18062,7 +16390,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1177</v>
       </c>
@@ -18080,7 +16408,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1179</v>
       </c>
@@ -18098,7 +16426,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1181</v>
       </c>
@@ -18116,7 +16444,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1183</v>
       </c>
@@ -18134,7 +16462,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1185</v>
       </c>
@@ -18152,7 +16480,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1187</v>
       </c>
@@ -18170,7 +16498,7 @@
         <v>uk</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1189</v>
       </c>
@@ -18188,7 +16516,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1190</v>
       </c>
@@ -18206,7 +16534,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1192</v>
       </c>
@@ -18224,7 +16552,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1193</v>
       </c>
@@ -18242,7 +16570,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1194</v>
       </c>
@@ -18260,7 +16588,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1195</v>
       </c>
@@ -18278,7 +16606,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1197</v>
       </c>
@@ -18296,7 +16624,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1198</v>
       </c>
@@ -18314,7 +16642,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1200</v>
       </c>
@@ -18332,7 +16660,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1202</v>
       </c>
@@ -18350,7 +16678,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1203</v>
       </c>
@@ -18368,7 +16696,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1204</v>
       </c>
@@ -18386,7 +16714,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1206</v>
       </c>
@@ -18404,7 +16732,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1208</v>
       </c>
@@ -18422,7 +16750,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1209</v>
       </c>
@@ -18440,7 +16768,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1211</v>
       </c>
@@ -18458,7 +16786,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1212</v>
       </c>
@@ -18476,7 +16804,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1214</v>
       </c>
@@ -18494,7 +16822,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1216</v>
       </c>
@@ -18512,7 +16840,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1218</v>
       </c>
@@ -18530,7 +16858,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1220</v>
       </c>
@@ -18548,7 +16876,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1222</v>
       </c>
@@ -18566,7 +16894,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1223</v>
       </c>
@@ -18584,7 +16912,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1224</v>
       </c>
@@ -18602,7 +16930,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1226</v>
       </c>
@@ -18620,7 +16948,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1228</v>
       </c>
@@ -18638,7 +16966,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1230</v>
       </c>
@@ -18656,7 +16984,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1231</v>
       </c>
@@ -18674,7 +17002,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1232</v>
       </c>
@@ -18692,7 +17020,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1234</v>
       </c>
@@ -18710,7 +17038,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1236</v>
       </c>
@@ -18728,7 +17056,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1238</v>
       </c>
@@ -18746,7 +17074,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1239</v>
       </c>
@@ -18764,7 +17092,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1241</v>
       </c>
@@ -18782,7 +17110,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1242</v>
       </c>
@@ -18800,7 +17128,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1243</v>
       </c>
@@ -18818,7 +17146,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1245</v>
       </c>
@@ -18836,7 +17164,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1247</v>
       </c>
@@ -18854,7 +17182,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1248</v>
       </c>
@@ -18872,7 +17200,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1250</v>
       </c>
@@ -18890,7 +17218,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1252</v>
       </c>
@@ -18908,7 +17236,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1253</v>
       </c>
@@ -18926,7 +17254,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1255</v>
       </c>
@@ -18944,7 +17272,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1257</v>
       </c>
@@ -18962,7 +17290,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1258</v>
       </c>
@@ -18980,7 +17308,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1259</v>
       </c>
@@ -18998,7 +17326,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1260</v>
       </c>
@@ -19016,7 +17344,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1261</v>
       </c>
@@ -19034,7 +17362,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1263</v>
       </c>
@@ -19052,7 +17380,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1265</v>
       </c>
@@ -19070,7 +17398,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1267</v>
       </c>
@@ -19088,7 +17416,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1268</v>
       </c>
@@ -19106,7 +17434,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1270</v>
       </c>
@@ -19124,7 +17452,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1272</v>
       </c>
@@ -19142,7 +17470,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1273</v>
       </c>
@@ -19160,7 +17488,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1274</v>
       </c>
@@ -19178,7 +17506,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1275</v>
       </c>
@@ -19196,7 +17524,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1276</v>
       </c>
@@ -19214,7 +17542,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1278</v>
       </c>
@@ -19232,7 +17560,7 @@
         <v>Marcellus</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1279</v>
       </c>
@@ -19250,7 +17578,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1280</v>
       </c>
@@ -19268,7 +17596,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1281</v>
       </c>
@@ -19286,7 +17614,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1282</v>
       </c>
@@ -19304,7 +17632,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1283</v>
       </c>
@@ -19322,7 +17650,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1284</v>
       </c>
@@ -19340,7 +17668,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1285</v>
       </c>
@@ -19358,7 +17686,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1286</v>
       </c>
@@ -19376,7 +17704,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1287</v>
       </c>
@@ -19394,7 +17722,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1288</v>
       </c>
@@ -19412,7 +17740,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1289</v>
       </c>
@@ -19430,7 +17758,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1290</v>
       </c>
@@ -19448,7 +17776,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1291</v>
       </c>
@@ -19466,7 +17794,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1292</v>
       </c>
@@ -19484,7 +17812,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1293</v>
       </c>
@@ -19502,7 +17830,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1294</v>
       </c>
@@ -19520,7 +17848,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1295</v>
       </c>
@@ -19538,7 +17866,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1296</v>
       </c>
@@ -19556,7 +17884,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1298</v>
       </c>
@@ -19574,7 +17902,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1299</v>
       </c>
@@ -19592,7 +17920,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1300</v>
       </c>
@@ -19610,7 +17938,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1301</v>
       </c>
@@ -19628,7 +17956,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1303</v>
       </c>
@@ -19646,7 +17974,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1304</v>
       </c>
@@ -19664,7 +17992,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1305</v>
       </c>
@@ -19682,7 +18010,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1306</v>
       </c>
@@ -19700,7 +18028,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1307</v>
       </c>
@@ -19718,7 +18046,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1308</v>
       </c>
@@ -19736,7 +18064,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1309</v>
       </c>
@@ -19754,7 +18082,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1311</v>
       </c>
@@ -19772,7 +18100,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1312</v>
       </c>
@@ -19790,7 +18118,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1314</v>
       </c>
@@ -19808,7 +18136,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1315</v>
       </c>
@@ -19826,7 +18154,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1316</v>
       </c>
@@ -19844,7 +18172,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1317</v>
       </c>
@@ -19862,7 +18190,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1318</v>
       </c>
@@ -19880,7 +18208,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1319</v>
       </c>
@@ -19898,7 +18226,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1320</v>
       </c>
@@ -19916,7 +18244,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1321</v>
       </c>
@@ -19934,7 +18262,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1322</v>
       </c>
@@ -19952,7 +18280,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1324</v>
       </c>
@@ -19970,7 +18298,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1325</v>
       </c>
@@ -19988,7 +18316,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1326</v>
       </c>
@@ -20006,7 +18334,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1328</v>
       </c>
@@ -20024,7 +18352,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1329</v>
       </c>
@@ -20042,7 +18370,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1330</v>
       </c>
@@ -20060,7 +18388,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1331</v>
       </c>
@@ -20078,7 +18406,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1332</v>
       </c>
@@ -20096,7 +18424,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1334</v>
       </c>
@@ -20114,7 +18442,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1335</v>
       </c>
@@ -20132,7 +18460,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1336</v>
       </c>
@@ -20150,7 +18478,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1338</v>
       </c>
@@ -20168,7 +18496,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1339</v>
       </c>
@@ -20186,7 +18514,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1341</v>
       </c>
@@ -20204,7 +18532,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1342</v>
       </c>
@@ -20222,7 +18550,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1343</v>
       </c>
@@ -20240,7 +18568,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1345</v>
       </c>
@@ -20258,7 +18586,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1346</v>
       </c>
@@ -20276,7 +18604,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1347</v>
       </c>
@@ -20294,7 +18622,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1348</v>
       </c>
@@ -20312,7 +18640,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1349</v>
       </c>
@@ -20330,7 +18658,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1350</v>
       </c>
@@ -20348,7 +18676,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1351</v>
       </c>
@@ -20366,7 +18694,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1353</v>
       </c>
@@ -20384,7 +18712,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1355</v>
       </c>
@@ -20402,7 +18730,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1357</v>
       </c>
@@ -20420,7 +18748,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1359</v>
       </c>
@@ -20438,7 +18766,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1361</v>
       </c>
@@ -20456,7 +18784,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1362</v>
       </c>
@@ -20474,7 +18802,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1364</v>
       </c>
@@ -20492,7 +18820,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1365</v>
       </c>
@@ -20510,7 +18838,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1367</v>
       </c>
@@ -20528,7 +18856,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1369</v>
       </c>
@@ -20546,7 +18874,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1370</v>
       </c>
@@ -20564,7 +18892,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1371</v>
       </c>
@@ -20582,7 +18910,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1373</v>
       </c>
@@ -20600,7 +18928,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1375</v>
       </c>
@@ -20618,7 +18946,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1376</v>
       </c>
@@ -20636,7 +18964,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1377</v>
       </c>
@@ -20654,7 +18982,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1378</v>
       </c>
@@ -20672,7 +19000,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1380</v>
       </c>
@@ -20690,7 +19018,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1381</v>
       </c>
@@ -20708,7 +19036,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1382</v>
       </c>
@@ -20726,7 +19054,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1383</v>
       </c>
@@ -20744,7 +19072,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1384</v>
       </c>
@@ -20762,7 +19090,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1385</v>
       </c>
@@ -20780,7 +19108,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1386</v>
       </c>
@@ -20798,7 +19126,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1388</v>
       </c>
@@ -20816,7 +19144,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1389</v>
       </c>
@@ -20834,7 +19162,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>1390</v>
       </c>
@@ -20852,7 +19180,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>1391</v>
       </c>
@@ -20870,7 +19198,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>1393</v>
       </c>
@@ -20888,7 +19216,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1394</v>
       </c>
@@ -20906,7 +19234,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1396</v>
       </c>
@@ -20924,7 +19252,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1397</v>
       </c>
@@ -20942,7 +19270,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>1398</v>
       </c>
@@ -20960,7 +19288,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>1400</v>
       </c>
@@ -20978,7 +19306,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>1401</v>
       </c>
@@ -20996,7 +19324,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1402</v>
       </c>
@@ -21014,7 +19342,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1404</v>
       </c>
@@ -21032,7 +19360,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>1405</v>
       </c>
@@ -21050,7 +19378,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>1406</v>
       </c>
@@ -21068,7 +19396,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>1407</v>
       </c>
@@ -21086,7 +19414,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>1409</v>
       </c>
@@ -21104,7 +19432,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1410</v>
       </c>
@@ -21122,7 +19450,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1411</v>
       </c>
@@ -21140,7 +19468,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1412</v>
       </c>
@@ -21158,7 +19486,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>1414</v>
       </c>
@@ -21176,7 +19504,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1416</v>
       </c>
@@ -21194,7 +19522,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>1417</v>
       </c>
@@ -21212,7 +19540,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1419</v>
       </c>
@@ -21230,7 +19558,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1421</v>
       </c>
@@ -21248,7 +19576,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1422</v>
       </c>
@@ -21266,7 +19594,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1424</v>
       </c>
@@ -21284,7 +19612,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1426</v>
       </c>
@@ -21302,7 +19630,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>1427</v>
       </c>
@@ -21320,7 +19648,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>1428</v>
       </c>
@@ -21338,7 +19666,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>1429</v>
       </c>
@@ -21356,7 +19684,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>1431</v>
       </c>
@@ -21374,7 +19702,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>1433</v>
       </c>
@@ -21392,7 +19720,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>1434</v>
       </c>
@@ -21410,7 +19738,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1435</v>
       </c>
@@ -21428,7 +19756,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>1436</v>
       </c>
@@ -21446,7 +19774,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>1437</v>
       </c>
@@ -21464,7 +19792,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>1439</v>
       </c>
@@ -21482,7 +19810,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>1441</v>
       </c>
@@ -21500,7 +19828,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>1443</v>
       </c>
@@ -21518,7 +19846,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1445</v>
       </c>
@@ -21536,7 +19864,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>1447</v>
       </c>
@@ -21554,7 +19882,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>1449</v>
       </c>
@@ -21572,7 +19900,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>1450</v>
       </c>
@@ -21590,7 +19918,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>1452</v>
       </c>
@@ -21608,7 +19936,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>1454</v>
       </c>
@@ -21626,7 +19954,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>1455</v>
       </c>
@@ -21644,7 +19972,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>1457</v>
       </c>
@@ -21662,7 +19990,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1459</v>
       </c>
@@ -21680,7 +20008,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>1460</v>
       </c>
@@ -21698,7 +20026,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>1462</v>
       </c>
@@ -21716,7 +20044,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>1463</v>
       </c>
@@ -21734,7 +20062,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>1465</v>
       </c>
@@ -21752,7 +20080,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>1467</v>
       </c>
@@ -21770,7 +20098,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1469</v>
       </c>
@@ -21788,7 +20116,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>1471</v>
       </c>
@@ -21806,7 +20134,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1473</v>
       </c>
@@ -21824,7 +20152,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>1475</v>
       </c>
@@ -21842,7 +20170,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>1477</v>
       </c>
@@ -21860,7 +20188,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>1479</v>
       </c>
@@ -21878,7 +20206,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>1481</v>
       </c>
@@ -21896,7 +20224,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>1483</v>
       </c>
@@ -21914,7 +20242,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>1485</v>
       </c>
@@ -21932,7 +20260,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>1486</v>
       </c>
@@ -21950,7 +20278,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>1488</v>
       </c>
@@ -21968,7 +20296,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>1490</v>
       </c>
@@ -21986,7 +20314,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>1491</v>
       </c>
@@ -22004,7 +20332,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>1492</v>
       </c>
@@ -22022,7 +20350,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>1493</v>
       </c>
@@ -22040,7 +20368,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>1494</v>
       </c>
@@ -22058,7 +20386,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>1496</v>
       </c>
@@ -22076,7 +20404,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>1498</v>
       </c>
@@ -22094,7 +20422,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>1500</v>
       </c>
@@ -22112,7 +20440,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>1502</v>
       </c>
@@ -22130,7 +20458,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>1504</v>
       </c>
@@ -22148,7 +20476,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>1505</v>
       </c>
@@ -22166,7 +20494,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>1506</v>
       </c>
@@ -22184,7 +20512,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>1507</v>
       </c>
@@ -22202,7 +20530,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>1508</v>
       </c>
@@ -22220,7 +20548,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>1510</v>
       </c>
@@ -22238,7 +20566,7 @@
         <v>Woodford</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>1512</v>
       </c>
